--- a/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23136" windowHeight="9240"/>
+    <workbookView windowWidth="21000" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,27 +59,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,12 +82,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -126,30 +187,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,22 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,45 +212,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,25 +226,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,13 +340,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,43 +382,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,91 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +417,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,32 +462,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,148 +522,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1083,7 +1076,6 @@
       <c r="D2">
         <v>500</v>
       </c>
-      <c r="E2"/>
       <c r="H2">
         <v>100</v>
       </c>

--- a/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>boss的id：id</t>
   </si>
@@ -51,7 +51,13 @@
     <t>灰烬审判者古达</t>
   </si>
   <si>
+    <t>5,6</t>
+  </si>
+  <si>
     <t>薪王们的化身</t>
+  </si>
+  <si>
+    <t>5,4</t>
   </si>
 </sst>
 </file>
@@ -74,6 +80,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -82,30 +127,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +208,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -127,91 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,31 +232,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,151 +382,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,26 +426,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,19 +468,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,21 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -517,6 +497,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1031,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1076,8 +1082,11 @@
       <c r="D2">
         <v>500</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
       <c r="H2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>0.1</v>
@@ -1091,16 +1100,19 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>0.2</v>

--- a/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>boss的id：id</t>
   </si>
@@ -33,19 +33,10 @@
     <t>boss的技能列表：skillIds</t>
   </si>
   <si>
-    <t>掉落药品的ids：medicineIds</t>
-  </si>
-  <si>
-    <t>掉落装备的ids：equipmentIds</t>
-  </si>
-  <si>
     <t>boss的攻击力：attack</t>
   </si>
   <si>
     <t>boss的技能加成伤害：damageAdd</t>
-  </si>
-  <si>
-    <t>掉落的金币数量：money</t>
   </si>
   <si>
     <t>灰烬审判者古达</t>
@@ -66,9 +57,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,11 +70,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,8 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,6 +150,22 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,15 +178,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,77 +200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,13 +223,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,169 +355,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,30 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,11 +432,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,34 +509,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,15 +1019,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" ht="72" spans="1:11">
+    <row r="1" ht="72" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,67 +1049,56 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>10</v>
-      </c>
-      <c r="C2">
-        <v>500</v>
       </c>
       <c r="D2">
         <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="G2">
         <v>0.1</v>
       </c>
-      <c r="J2">
-        <v>100</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3">
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
         <v>0.2</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
@@ -57,9 +57,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,21 +70,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -100,17 +85,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,33 +122,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,38 +183,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,67 +223,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,31 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,79 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,17 +417,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -447,6 +450,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -456,11 +474,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,21 +496,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,15 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1063,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -1086,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="D3">
         <v>1000</v>

--- a/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9240"/>
+    <workbookView windowWidth="18180" windowHeight="7692"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -78,14 +130,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,115 +200,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,24 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,6 +428,63 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,30 +506,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -499,21 +514,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1063,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -1086,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>1000</v>

--- a/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
+++ b/mmoRpgServerFinal/src/main/resources/message/bossMessage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18180" windowHeight="7692"/>
+    <workbookView windowWidth="16308" windowHeight="7764"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>boss的id：id</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>boss的技能加成伤害：damageAdd</t>
+  </si>
+  <si>
+    <t>战胜boss后增加的经验：addExp</t>
   </si>
   <si>
     <t>灰烬审判者古达</t>
@@ -71,6 +74,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -86,60 +164,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,33 +186,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,24 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,13 +226,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,67 +358,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,19 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,67 +406,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +417,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,41 +450,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +479,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,11 +511,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,10 +525,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,133 +537,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1025,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1049,18 +1052,20 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1069,7 +1074,7 @@
         <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1077,13 +1082,16 @@
       <c r="G2">
         <v>0.1</v>
       </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1092,13 +1100,16 @@
         <v>1000</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3">
         <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
